--- a/Azure Machine Learning/older-dp100/data/trip2022.xlsx
+++ b/Azure Machine Learning/older-dp100/data/trip2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Trips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ag4488\Documents\Architecture\Data_Science\Azure Machine Learning\older-dp100\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8C7491-BAFA-4458-ADC6-FC551355C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A327391-F164-4F8E-A844-D3A4F9F86F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="1320" windowWidth="17460" windowHeight="9084" xr2:uid="{22EDB85A-2A10-405C-8925-34124F3AC589}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDB85A-2A10-405C-8925-34124F3AC589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Day#</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Mileage (km)</t>
+  </si>
+  <si>
+    <t>3km trail to La Halte du Beluga lookout</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Chateau Repotel Henry IV</t>
+  </si>
+  <si>
+    <t>Hotel du Parc</t>
   </si>
 </sst>
 </file>
@@ -452,23 +464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEBD448-85BD-4A97-A544-AA2EEDF62B98}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,13 +498,16 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,7 +525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -527,11 +543,11 @@
       <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>3</v>
@@ -549,11 +565,11 @@
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -571,11 +587,11 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -593,8 +609,11 @@
       <c r="E6">
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -613,13 +632,16 @@
         <v>150</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -638,10 +660,13 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -660,10 +685,13 @@
         <v>210</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -682,10 +710,16 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -704,7 +738,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -723,11 +757,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
         <v>2700</v>
       </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
